--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>614551.0814105847</v>
+        <v>610790.3440689736</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5973276.738376967</v>
+        <v>5973276.738376972</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4880869.209243818</v>
+        <v>4880869.209243816</v>
       </c>
     </row>
     <row r="11">
@@ -724,7 +724,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.95103878648243</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -740,70 +740,70 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="T3" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="U3" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="V3" t="n">
         <v>36.39025468426209</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>41.31500304752735</v>
-      </c>
       <c r="W3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>36.39025468426208</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="E4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>41.31500304752735</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -977,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="V10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1381,10 +1381,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>212.6615473203996</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>137.6351379060684</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>26.23442655956058</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>237.4644955258596</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1615,16 +1615,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>128.939539850043</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>164.1017117126583</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1770,16 +1770,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>174.1833547985312</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>252.465064887559</v>
+        <v>287.505253991859</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2007,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>84.81216272142126</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>160.417701706561</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2089,16 +2089,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>15.02874759368085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>185.0779563346874</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>41.58513431559582</v>
       </c>
       <c r="T22" t="n">
-        <v>160.417701706561</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2326,16 +2326,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>70.09001196296988</v>
       </c>
       <c r="U23" t="n">
-        <v>147.4531897307286</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>125.908628374094</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>175.104147134293</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>163.5699874914237</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -2806,10 +2806,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>70.38658476994605</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2970,7 +2970,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1764331974593358</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>142.2548939440099</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
@@ -3094,7 +3094,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3207,7 +3207,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>276.204841436801</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>190.2459957883688</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>84.81216272142126</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>53.21344237186974</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3511,7 +3511,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>185.0779563346915</v>
+        <v>404.8614147123965</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>4.19895121844808</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3720,13 +3720,13 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>207.2788250587006</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>149.6157531058519</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>26.23442655956058</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>237.4644955258587</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>379.4155231104777</v>
+        <v>214.2137278352253</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,19 +4140,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>60.07073011995461</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>143.4748134571424</v>
       </c>
     </row>
   </sheetData>
@@ -4309,13 +4309,13 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C2" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D2" t="n">
-        <v>56.86656659549116</v>
+        <v>56.86656659549119</v>
       </c>
       <c r="E2" t="n">
-        <v>27.13222579419039</v>
+        <v>27.13222579419042</v>
       </c>
       <c r="F2" t="n">
         <v>3.305200243802188</v>
@@ -4339,19 +4339,19 @@
         <v>44.20705326085427</v>
       </c>
       <c r="M2" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N2" t="n">
-        <v>126.0107592949584</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O2" t="n">
-        <v>126.0107592949584</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P2" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q2" t="n">
-        <v>126.0107592949584</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R2" t="n">
         <v>165.2600121901094</v>
@@ -4369,7 +4369,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W2" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X2" t="n">
         <v>149.3429022612615</v>
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.06303325820834</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C3" t="n">
         <v>3.305200243802188</v>
@@ -4406,28 +4406,28 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I3" t="n">
-        <v>29.36887340425979</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J3" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K3" t="n">
-        <v>83.45630615600527</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L3" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M3" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N3" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O3" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P3" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q3" t="n">
         <v>124.3581591730573</v>
@@ -4436,25 +4436,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S3" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T3" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="U3" t="n">
-        <v>165.2600121901094</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="V3" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="W3" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="X3" t="n">
-        <v>40.06303325820834</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.06303325820834</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="C4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="D4" t="n">
         <v>128.5021791757032</v>
       </c>
       <c r="E4" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="F4" t="n">
         <v>86.76985286506957</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>45.03752655443588</v>
       </c>
-      <c r="G4" t="n">
-        <v>3.305200243802188</v>
-      </c>
       <c r="H4" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="I4" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J4" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K4" t="n">
-        <v>3.305200243802188</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L4" t="n">
-        <v>3.305200243802188</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M4" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N4" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O4" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P4" t="n">
         <v>124.3581591730573</v>
@@ -4512,28 +4512,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="V4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="W4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="X4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="Y4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.8380161568152</v>
+        <v>122.8380161568153</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064259</v>
+        <v>88.73594738064263</v>
       </c>
       <c r="D5" t="n">
-        <v>56.86656659549116</v>
+        <v>56.86656659549121</v>
       </c>
       <c r="E5" t="n">
-        <v>27.13222579419039</v>
+        <v>27.13222579419044</v>
       </c>
       <c r="F5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="G5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="H5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="I5" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="O5" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P5" t="n">
         <v>83.45630615600527</v>
@@ -4606,7 +4606,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415467</v>
+        <v>164.4449616415468</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="C6" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="D6" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E6" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F6" t="n">
         <v>3.305200243802188</v>
@@ -4643,31 +4643,31 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
-        <v>29.36887340425979</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J6" t="n">
-        <v>42.55445313895319</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K6" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L6" t="n">
-        <v>42.55445313895319</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="M6" t="n">
-        <v>42.55445313895319</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="N6" t="n">
-        <v>42.55445313895319</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="O6" t="n">
-        <v>42.55445313895319</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="P6" t="n">
-        <v>83.45630615600527</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q6" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R6" t="n">
         <v>165.2600121901094</v>
@@ -4679,19 +4679,19 @@
         <v>165.2600121901094</v>
       </c>
       <c r="U6" t="n">
-        <v>128.5021791757032</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V6" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W6" t="n">
-        <v>45.03752655443588</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X6" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="7">
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128.5021791757032</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="C7" t="n">
         <v>128.5021791757032</v>
@@ -4716,31 +4716,31 @@
         <v>86.76985286506957</v>
       </c>
       <c r="G7" t="n">
+        <v>86.76985286506957</v>
+      </c>
+      <c r="H7" t="n">
         <v>45.03752655443588</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.305200243802188</v>
       </c>
       <c r="I7" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>3.305200243802188</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L7" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M7" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N7" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O7" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P7" t="n">
         <v>124.3581591730573</v>
@@ -4749,28 +4749,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="V7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="W7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="X7" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="Y7" t="n">
-        <v>128.5021791757032</v>
+        <v>143.8421908954813</v>
       </c>
     </row>
     <row r="8">
@@ -4783,7 +4783,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D8" t="n">
         <v>56.86656659549116</v>
@@ -4804,10 +4804,10 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J8" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K8" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L8" t="n">
         <v>44.20705326085427</v>
@@ -4816,13 +4816,13 @@
         <v>44.20705326085427</v>
       </c>
       <c r="N8" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="O8" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="P8" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q8" t="n">
         <v>124.3581591730573</v>
@@ -4883,28 +4883,28 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J9" t="n">
-        <v>29.36887340425979</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K9" t="n">
-        <v>29.36887340425979</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="L9" t="n">
-        <v>29.36887340425979</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M9" t="n">
-        <v>29.36887340425979</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N9" t="n">
-        <v>70.27072642131186</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O9" t="n">
-        <v>70.27072642131186</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P9" t="n">
-        <v>83.45630615600527</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.305200243802188</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="C10" t="n">
-        <v>3.305200243802188</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="D10" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E10" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="F10" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="G10" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="H10" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>3.305200243802188</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L10" t="n">
-        <v>42.55445313895319</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M10" t="n">
         <v>83.45630615600527</v>
       </c>
       <c r="N10" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="O10" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="P10" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="O10" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="P10" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T10" t="n">
-        <v>128.5021791757032</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U10" t="n">
-        <v>86.76985286506957</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="V10" t="n">
-        <v>45.03752655443588</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="W10" t="n">
-        <v>45.03752655443588</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="X10" t="n">
-        <v>3.305200243802188</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.305200243802188</v>
+        <v>102.1098645848476</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1997.710627381563</v>
+        <v>1754.536245353315</v>
       </c>
       <c r="C11" t="n">
-        <v>1559.568154564987</v>
+        <v>1316.393772536738</v>
       </c>
       <c r="D11" t="n">
-        <v>1123.658369739431</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E11" t="n">
-        <v>689.8836248977263</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F11" t="n">
-        <v>262.0161953069341</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
         <v>47.20655154895474</v>
@@ -5038,16 +5038,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>2180.835815838223</v>
       </c>
       <c r="W11" t="n">
-        <v>1997.710627381563</v>
+        <v>2180.835815838223</v>
       </c>
       <c r="X11" t="n">
-        <v>1997.710627381563</v>
+        <v>2180.835815838223</v>
       </c>
       <c r="Y11" t="n">
-        <v>1997.710627381563</v>
+        <v>2180.835815838223</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030332</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G12" t="n">
         <v>79.1492015823585</v>
@@ -5162,10 +5162,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>896.8524940391952</v>
+        <v>758.6107344189465</v>
       </c>
       <c r="C13" t="n">
-        <v>724.2907825224202</v>
+        <v>586.0490229021715</v>
       </c>
       <c r="D13" t="n">
-        <v>558.4127897239429</v>
+        <v>420.1710301036942</v>
       </c>
       <c r="E13" t="n">
-        <v>388.6547859746801</v>
+        <v>250.4130263544315</v>
       </c>
       <c r="F13" t="n">
-        <v>211.9477319364363</v>
+        <v>73.70597231618765</v>
       </c>
       <c r="G13" t="n">
         <v>47.20655154895474</v>
@@ -5208,16 +5208,16 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>1690.512214359095</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N13" t="n">
-        <v>1887.361501150536</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O13" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
-        <v>2120.464450653939</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>2120.464450653939</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1833.50894252437</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.482538110662</v>
+        <v>1423.240778490413</v>
       </c>
       <c r="X13" t="n">
-        <v>1316.090783444074</v>
+        <v>1177.849023823826</v>
       </c>
       <c r="Y13" t="n">
-        <v>1088.671112758182</v>
+        <v>950.4293531379337</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1514.88554354214</v>
+        <v>1485.27551347728</v>
       </c>
       <c r="C14" t="n">
-        <v>1076.743070725563</v>
+        <v>1047.133040660703</v>
       </c>
       <c r="D14" t="n">
-        <v>640.8332859000079</v>
+        <v>611.2232558351475</v>
       </c>
       <c r="E14" t="n">
-        <v>640.8332859000079</v>
+        <v>177.4485109934427</v>
       </c>
       <c r="F14" t="n">
-        <v>212.9658563092157</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G14" t="n">
-        <v>212.9658563092157</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895474</v>
@@ -5281,19 +5281,19 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M14" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
         <v>2043.069798152528</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X14" t="n">
-        <v>1941.185114027048</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y14" t="n">
-        <v>1941.185114027048</v>
+        <v>1911.575083962187</v>
       </c>
     </row>
     <row r="15">
@@ -5339,13 +5339,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
         <v>79.1492015823585</v>
@@ -5354,19 +5354,19 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>616.081764785142</v>
+        <v>727.0944902899325</v>
       </c>
       <c r="C16" t="n">
-        <v>443.520053268367</v>
+        <v>554.5327787731575</v>
       </c>
       <c r="D16" t="n">
-        <v>393.6716093364613</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="E16" t="n">
-        <v>223.9136055871985</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G16" t="n">
         <v>47.20655154895474</v>
@@ -5436,25 +5436,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>413.3628026016838</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M16" t="n">
-        <v>997.5438780199986</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N16" t="n">
-        <v>1567.301592981533</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O16" t="n">
-        <v>2104.736723555076</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P16" t="n">
-        <v>2205.505779732759</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5472,16 +5472,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.738213270317</v>
+        <v>1663.750938775107</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.711808856609</v>
+        <v>1391.724534361399</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.320054190021</v>
+        <v>1146.332779694812</v>
       </c>
       <c r="Y16" t="n">
-        <v>807.9003835041292</v>
+        <v>918.9131090089197</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1164.594971760038</v>
+        <v>1210.264145394206</v>
       </c>
       <c r="C17" t="n">
-        <v>1164.594971760038</v>
+        <v>772.1216725776299</v>
       </c>
       <c r="D17" t="n">
-        <v>1164.594971760038</v>
+        <v>772.1216725776299</v>
       </c>
       <c r="E17" t="n">
-        <v>730.8202269183334</v>
+        <v>338.346927735925</v>
       </c>
       <c r="F17" t="n">
-        <v>302.9527973275412</v>
+        <v>338.346927735925</v>
       </c>
       <c r="G17" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="H17" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="I17" t="n">
-        <v>119.1375305205814</v>
+        <v>119.1375305205813</v>
       </c>
       <c r="J17" t="n">
-        <v>276.7843057640267</v>
+        <v>276.7843057640266</v>
       </c>
       <c r="K17" t="n">
         <v>513.0559561432475</v>
       </c>
       <c r="L17" t="n">
-        <v>806.1718310071481</v>
+        <v>806.1718310071482</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.140126477794</v>
+        <v>1132.319719175935</v>
       </c>
       <c r="N17" t="n">
-        <v>1499.565428454271</v>
+        <v>1463.745021152413</v>
       </c>
       <c r="O17" t="n">
-        <v>1812.520942995564</v>
+        <v>1812.520942995559</v>
       </c>
       <c r="P17" t="n">
-        <v>2079.621234174833</v>
+        <v>2079.621234174828</v>
       </c>
       <c r="Q17" t="n">
-        <v>2280.202429185901</v>
+        <v>2280.202429185896</v>
       </c>
       <c r="R17" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470036</v>
       </c>
       <c r="S17" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470036</v>
       </c>
       <c r="T17" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470036</v>
       </c>
       <c r="U17" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470036</v>
       </c>
       <c r="V17" t="n">
-        <v>2396.879013470041</v>
+        <v>2034.262063403863</v>
       </c>
       <c r="W17" t="n">
-        <v>1992.023558881074</v>
+        <v>1629.406608814896</v>
       </c>
       <c r="X17" t="n">
-        <v>1572.881095460385</v>
+        <v>1210.264145394206</v>
       </c>
       <c r="Y17" t="n">
-        <v>1164.594971760038</v>
+        <v>1210.264145394206</v>
       </c>
     </row>
     <row r="18">
@@ -5576,40 +5576,40 @@
         <v>436.8458726234791</v>
       </c>
       <c r="D18" t="n">
-        <v>341.7555837700324</v>
+        <v>341.7555837700323</v>
       </c>
       <c r="E18" t="n">
-        <v>247.6351690969861</v>
+        <v>247.635169096986</v>
       </c>
       <c r="F18" t="n">
-        <v>164.2513307131477</v>
+        <v>164.2513307131476</v>
       </c>
       <c r="G18" t="n">
-        <v>79.88023030280458</v>
+        <v>79.88023030280448</v>
       </c>
       <c r="H18" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="I18" t="n">
-        <v>82.15431644087694</v>
+        <v>82.15431644087684</v>
       </c>
       <c r="J18" t="n">
         <v>176.047655787344</v>
       </c>
       <c r="K18" t="n">
-        <v>336.5263278415142</v>
+        <v>336.5263278415143</v>
       </c>
       <c r="L18" t="n">
-        <v>552.3097067165364</v>
+        <v>552.3097067165365</v>
       </c>
       <c r="M18" t="n">
-        <v>804.1187320192339</v>
+        <v>804.118732019234</v>
       </c>
       <c r="N18" t="n">
         <v>1062.592392940554</v>
       </c>
       <c r="O18" t="n">
-        <v>1299.045295755084</v>
+        <v>1299.045295755085</v>
       </c>
       <c r="P18" t="n">
         <v>1488.81959631989</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>732.8423423721597</v>
+        <v>652.6332008074412</v>
       </c>
       <c r="C19" t="n">
-        <v>560.2806308553846</v>
+        <v>480.0714892906661</v>
       </c>
       <c r="D19" t="n">
         <v>394.4026380569073</v>
       </c>
       <c r="E19" t="n">
-        <v>224.6446343076446</v>
+        <v>224.6446343076445</v>
       </c>
       <c r="F19" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="G19" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="H19" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="I19" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="J19" t="n">
-        <v>106.8432439715839</v>
+        <v>106.8432439715838</v>
       </c>
       <c r="K19" t="n">
-        <v>460.8820419675563</v>
+        <v>203.643344539142</v>
       </c>
       <c r="L19" t="n">
-        <v>584.7528435858543</v>
+        <v>512.5904883304096</v>
       </c>
       <c r="M19" t="n">
-        <v>1174.841103105297</v>
+        <v>1102.678747849852</v>
       </c>
       <c r="N19" t="n">
-        <v>1744.598818066831</v>
+        <v>1672.436462811386</v>
       </c>
       <c r="O19" t="n">
-        <v>1862.364699414593</v>
+        <v>2209.871593384929</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.640649562618</v>
+        <v>2310.640649562613</v>
       </c>
       <c r="Q19" t="n">
-        <v>2380.407920793274</v>
+        <v>2380.407920793269</v>
       </c>
       <c r="R19" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470036</v>
       </c>
       <c r="S19" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470036</v>
       </c>
       <c r="T19" t="n">
-        <v>2234.840930938161</v>
+        <v>2154.631789373443</v>
       </c>
       <c r="U19" t="n">
-        <v>1956.454298986904</v>
+        <v>1876.245157422186</v>
       </c>
       <c r="V19" t="n">
-        <v>1669.498790857335</v>
+        <v>1589.289649292616</v>
       </c>
       <c r="W19" t="n">
-        <v>1397.472386443626</v>
+        <v>1317.263244878908</v>
       </c>
       <c r="X19" t="n">
-        <v>1152.080631777039</v>
+        <v>1071.87149021232</v>
       </c>
       <c r="Y19" t="n">
-        <v>924.6609610911469</v>
+        <v>844.4518195264284</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2019.081510278938</v>
+        <v>1783.63201234403</v>
       </c>
       <c r="C20" t="n">
-        <v>1580.939037462361</v>
+        <v>1345.489539527453</v>
       </c>
       <c r="D20" t="n">
-        <v>1145.029252636805</v>
+        <v>909.5797547018979</v>
       </c>
       <c r="E20" t="n">
-        <v>1145.029252636805</v>
+        <v>475.805009860193</v>
       </c>
       <c r="F20" t="n">
-        <v>717.1618230460133</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="G20" t="n">
-        <v>317.6591317254904</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="H20" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="I20" t="n">
-        <v>119.1375305205814</v>
+        <v>119.1375305205813</v>
       </c>
       <c r="J20" t="n">
-        <v>312.6047130658853</v>
+        <v>312.6047130658802</v>
       </c>
       <c r="K20" t="n">
-        <v>548.8763634451062</v>
+        <v>548.8763634451011</v>
       </c>
       <c r="L20" t="n">
-        <v>841.9922383090068</v>
+        <v>841.9922383090018</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.140126477794</v>
+        <v>1168.140126477789</v>
       </c>
       <c r="N20" t="n">
-        <v>1499.565428454271</v>
+        <v>1499.565428454266</v>
       </c>
       <c r="O20" t="n">
-        <v>1812.520942995564</v>
+        <v>1812.520942995559</v>
       </c>
       <c r="P20" t="n">
-        <v>2079.621234174833</v>
+        <v>2079.621234174828</v>
       </c>
       <c r="Q20" t="n">
-        <v>2280.202429185901</v>
+        <v>2280.202429185896</v>
       </c>
       <c r="R20" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470036</v>
       </c>
       <c r="S20" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470036</v>
       </c>
       <c r="T20" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470036</v>
       </c>
       <c r="U20" t="n">
-        <v>2381.698460345111</v>
+        <v>2396.879013470036</v>
       </c>
       <c r="V20" t="n">
-        <v>2019.081510278938</v>
+        <v>2396.879013470036</v>
       </c>
       <c r="W20" t="n">
-        <v>2019.081510278938</v>
+        <v>2396.879013470036</v>
       </c>
       <c r="X20" t="n">
-        <v>2019.081510278938</v>
+        <v>2209.931582828938</v>
       </c>
       <c r="Y20" t="n">
-        <v>2019.081510278938</v>
+        <v>2209.931582828938</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>543.3023337868368</v>
+        <v>543.3023337868367</v>
       </c>
       <c r="C21" t="n">
-        <v>436.8458726234791</v>
+        <v>436.845872623479</v>
       </c>
       <c r="D21" t="n">
-        <v>341.7555837700324</v>
+        <v>341.7555837700322</v>
       </c>
       <c r="E21" t="n">
-        <v>247.6351690969861</v>
+        <v>247.6351690969859</v>
       </c>
       <c r="F21" t="n">
-        <v>164.2513307131477</v>
+        <v>164.2513307131475</v>
       </c>
       <c r="G21" t="n">
-        <v>79.88023030280458</v>
+        <v>79.88023030280448</v>
       </c>
       <c r="H21" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="I21" t="n">
-        <v>82.15431644087694</v>
+        <v>82.15431644087687</v>
       </c>
       <c r="J21" t="n">
         <v>176.047655787344</v>
@@ -5840,7 +5840,7 @@
         <v>552.3097067165364</v>
       </c>
       <c r="M21" t="n">
-        <v>804.1187320192339</v>
+        <v>804.1187320192338</v>
       </c>
       <c r="N21" t="n">
         <v>1062.592392940554</v>
@@ -5873,10 +5873,10 @@
         <v>945.9594498484992</v>
       </c>
       <c r="X21" t="n">
-        <v>791.0920140873792</v>
+        <v>791.0920140873791</v>
       </c>
       <c r="Y21" t="n">
-        <v>664.6062348665999</v>
+        <v>664.6062348665998</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>732.8423423721597</v>
+        <v>897.5835227596413</v>
       </c>
       <c r="C22" t="n">
-        <v>560.2806308553846</v>
+        <v>725.0218112428662</v>
       </c>
       <c r="D22" t="n">
-        <v>394.4026380569073</v>
+        <v>559.1438184443889</v>
       </c>
       <c r="E22" t="n">
-        <v>224.6446343076446</v>
+        <v>389.3858146951261</v>
       </c>
       <c r="F22" t="n">
-        <v>47.93758026940083</v>
+        <v>212.6787606568823</v>
       </c>
       <c r="G22" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="H22" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="I22" t="n">
-        <v>47.93758026940083</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="J22" t="n">
-        <v>106.8432439715839</v>
+        <v>106.8432439715838</v>
       </c>
       <c r="K22" t="n">
-        <v>203.6433445391421</v>
+        <v>478.4017991102776</v>
       </c>
       <c r="L22" t="n">
-        <v>745.7240279254011</v>
+        <v>1020.482482496536</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.812287444844</v>
+        <v>1151.086874835066</v>
       </c>
       <c r="N22" t="n">
-        <v>1905.570002406378</v>
+        <v>1278.585786638955</v>
       </c>
       <c r="O22" t="n">
-        <v>2209.871593384934</v>
+        <v>1694.171924550256</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.640649562618</v>
+        <v>2142.447874698281</v>
       </c>
       <c r="Q22" t="n">
-        <v>2380.407920793274</v>
+        <v>2380.407920793269</v>
       </c>
       <c r="R22" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470036</v>
       </c>
       <c r="S22" t="n">
-        <v>2396.879013470041</v>
+        <v>2354.873827292667</v>
       </c>
       <c r="T22" t="n">
-        <v>2234.840930938161</v>
+        <v>2112.626603196073</v>
       </c>
       <c r="U22" t="n">
-        <v>1956.454298986904</v>
+        <v>1834.239971244816</v>
       </c>
       <c r="V22" t="n">
-        <v>1669.498790857335</v>
+        <v>1834.239971244816</v>
       </c>
       <c r="W22" t="n">
-        <v>1397.472386443626</v>
+        <v>1562.213566831108</v>
       </c>
       <c r="X22" t="n">
-        <v>1152.080631777039</v>
+        <v>1316.82181216452</v>
       </c>
       <c r="Y22" t="n">
-        <v>924.6609610911469</v>
+        <v>1089.402141478628</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1761.294983468407</v>
+        <v>2036.923850175409</v>
       </c>
       <c r="C23" t="n">
-        <v>1323.152510651831</v>
+        <v>1598.781377358833</v>
       </c>
       <c r="D23" t="n">
-        <v>887.2427258262751</v>
+        <v>1162.871592533277</v>
       </c>
       <c r="E23" t="n">
-        <v>887.2427258262751</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="F23" t="n">
-        <v>459.3752962354828</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="G23" t="n">
-        <v>59.87260491495994</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="H23" t="n">
         <v>59.87260491495994</v>
@@ -5989,10 +5989,10 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J23" t="n">
-        <v>723.9740178625035</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K23" t="n">
-        <v>960.2456682417244</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L23" t="n">
         <v>1253.361543105625</v>
@@ -6019,22 +6019,22 @@
         <v>2953.163875962794</v>
       </c>
       <c r="T23" t="n">
-        <v>2741.392624431906</v>
+        <v>2882.365884081006</v>
       </c>
       <c r="U23" t="n">
-        <v>2592.450008542281</v>
+        <v>2882.365884081006</v>
       </c>
       <c r="V23" t="n">
-        <v>2592.450008542281</v>
+        <v>2882.365884081006</v>
       </c>
       <c r="W23" t="n">
-        <v>2187.594553953315</v>
+        <v>2882.365884081006</v>
       </c>
       <c r="X23" t="n">
-        <v>2187.594553953315</v>
+        <v>2463.223420660317</v>
       </c>
       <c r="Y23" t="n">
-        <v>2187.594553953315</v>
+        <v>2463.223420660317</v>
       </c>
     </row>
     <row r="24">
@@ -6065,10 +6065,10 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I24" t="n">
-        <v>94.08934108643605</v>
+        <v>94.08934108643594</v>
       </c>
       <c r="J24" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K24" t="n">
         <v>348.4613524870733</v>
@@ -6126,7 +6126,7 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C25" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D25" t="n">
         <v>766.5181902743841</v>
@@ -6135,7 +6135,7 @@
         <v>596.7601865251213</v>
       </c>
       <c r="F25" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868774</v>
       </c>
       <c r="G25" t="n">
         <v>255.311952099396</v>
@@ -6147,25 +6147,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J25" t="n">
-        <v>118.778268617143</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K25" t="n">
-        <v>219.75414325177</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L25" t="n">
-        <v>761.8348266380289</v>
+        <v>700.7873105388245</v>
       </c>
       <c r="M25" t="n">
-        <v>1351.923086157471</v>
+        <v>1290.875570058267</v>
       </c>
       <c r="N25" t="n">
-        <v>1921.680801119006</v>
+        <v>1860.633285019801</v>
       </c>
       <c r="O25" t="n">
-        <v>2459.115931692549</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P25" t="n">
-        <v>2907.391881840574</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q25" t="n">
         <v>2977.159153071229</v>
@@ -6244,7 +6244,7 @@
         <v>2223.890247792182</v>
       </c>
       <c r="P26" t="n">
-        <v>2507.218401699732</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q26" t="n">
         <v>2707.7995967108</v>
@@ -6253,25 +6253,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S26" t="n">
-        <v>2953.163875962794</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="T26" t="n">
-        <v>2741.392624431906</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="U26" t="n">
-        <v>2741.392624431906</v>
+        <v>2734.559554269511</v>
       </c>
       <c r="V26" t="n">
-        <v>2741.392624431906</v>
+        <v>2371.942604203337</v>
       </c>
       <c r="W26" t="n">
-        <v>2741.392624431906</v>
+        <v>2195.069728310112</v>
       </c>
       <c r="X26" t="n">
-        <v>2322.250161011217</v>
+        <v>2195.069728310112</v>
       </c>
       <c r="Y26" t="n">
-        <v>2322.250161011217</v>
+        <v>2195.069728310112</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1859.550434580796</v>
+        <v>555.2373584323959</v>
       </c>
       <c r="C27" t="n">
-        <v>1753.093973417438</v>
+        <v>448.7808972690382</v>
       </c>
       <c r="D27" t="n">
-        <v>1658.003684563992</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E27" t="n">
-        <v>1563.883269890945</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F27" t="n">
-        <v>1480.499431507107</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G27" t="n">
-        <v>1396.128331096764</v>
+        <v>91.81525494836369</v>
       </c>
       <c r="H27" t="n">
-        <v>1364.18568106336</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="I27" t="n">
-        <v>1398.402417234836</v>
+        <v>94.08934108643594</v>
       </c>
       <c r="J27" t="n">
-        <v>1492.295756581303</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K27" t="n">
-        <v>1652.774428635474</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L27" t="n">
-        <v>1868.557807510496</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M27" t="n">
-        <v>2120.366832813193</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N27" t="n">
-        <v>2378.840493734513</v>
+        <v>1074.527417586113</v>
       </c>
       <c r="O27" t="n">
-        <v>2615.293396549044</v>
+        <v>1310.980320400644</v>
       </c>
       <c r="P27" t="n">
-        <v>2805.06769711385</v>
+        <v>1500.75462096545</v>
       </c>
       <c r="Q27" t="n">
-        <v>2931.926791322084</v>
+        <v>1627.613715173684</v>
       </c>
       <c r="R27" t="n">
-        <v>2993.630245747997</v>
+        <v>1689.317169599597</v>
       </c>
       <c r="S27" t="n">
-        <v>2949.009215147731</v>
+        <v>1644.696138999331</v>
       </c>
       <c r="T27" t="n">
-        <v>2822.917660023384</v>
+        <v>1518.604583874984</v>
       </c>
       <c r="U27" t="n">
-        <v>2646.647822847265</v>
+        <v>1342.334746698865</v>
       </c>
       <c r="V27" t="n">
-        <v>2447.530304909264</v>
+        <v>1143.217228760864</v>
       </c>
       <c r="W27" t="n">
-        <v>2262.207550642458</v>
+        <v>957.8944744940584</v>
       </c>
       <c r="X27" t="n">
-        <v>2107.340114881338</v>
+        <v>803.0270387329383</v>
       </c>
       <c r="Y27" t="n">
-        <v>1980.854335660559</v>
+        <v>676.5412595121591</v>
       </c>
     </row>
     <row r="28">
@@ -6363,7 +6363,7 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C28" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D28" t="n">
         <v>766.5181902743841</v>
@@ -6372,7 +6372,7 @@
         <v>596.7601865251213</v>
       </c>
       <c r="F28" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G28" t="n">
         <v>255.311952099396</v>
@@ -6384,25 +6384,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J28" t="n">
-        <v>118.7782686171431</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K28" t="n">
-        <v>490.3368237558368</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L28" t="n">
-        <v>1032.417507142096</v>
+        <v>1118.997192306786</v>
       </c>
       <c r="M28" t="n">
-        <v>1183.730311293139</v>
+        <v>1709.085451826228</v>
       </c>
       <c r="N28" t="n">
-        <v>1753.488026254673</v>
+        <v>1836.584363630118</v>
       </c>
       <c r="O28" t="n">
         <v>2290.923156828216</v>
       </c>
       <c r="P28" t="n">
-        <v>2739.199106976241</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q28" t="n">
         <v>2977.159153071229</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1795.567036989589</v>
+        <v>1755.961231711366</v>
       </c>
       <c r="C29" t="n">
-        <v>1357.424564173013</v>
+        <v>1755.961231711366</v>
       </c>
       <c r="D29" t="n">
-        <v>921.5147793474571</v>
+        <v>1590.739022124069</v>
       </c>
       <c r="E29" t="n">
-        <v>487.7400345057522</v>
+        <v>1156.964277282364</v>
       </c>
       <c r="F29" t="n">
-        <v>59.87260491495994</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="G29" t="n">
-        <v>59.87260491495994</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="H29" t="n">
         <v>59.87260491495994</v>
@@ -6463,25 +6463,25 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J29" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K29" t="n">
-        <v>524.9909807888066</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L29" t="n">
-        <v>818.1068556527073</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M29" t="n">
-        <v>1144.254743821494</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N29" t="n">
-        <v>1475.680045797972</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O29" t="n">
-        <v>1788.635560339264</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P29" t="n">
-        <v>2055.735851518534</v>
+        <v>2507.218401699732</v>
       </c>
       <c r="Q29" t="n">
         <v>2707.7995967108</v>
@@ -6496,19 +6496,19 @@
         <v>2953.163875962794</v>
       </c>
       <c r="U29" t="n">
-        <v>2694.093184484308</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="V29" t="n">
-        <v>2694.093184484308</v>
+        <v>2590.54692589662</v>
       </c>
       <c r="W29" t="n">
-        <v>2622.995624110625</v>
+        <v>2590.54692589662</v>
       </c>
       <c r="X29" t="n">
-        <v>2203.853160689936</v>
+        <v>2590.54692589662</v>
       </c>
       <c r="Y29" t="n">
-        <v>1795.567036989589</v>
+        <v>2182.260802196274</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I30" t="n">
-        <v>94.08934108643631</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J30" t="n">
-        <v>187.9826804329034</v>
+        <v>187.9826804329032</v>
       </c>
       <c r="K30" t="n">
-        <v>348.4613524870736</v>
+        <v>348.4613524870734</v>
       </c>
       <c r="L30" t="n">
-        <v>564.2447313620959</v>
+        <v>564.2447313620958</v>
       </c>
       <c r="M30" t="n">
-        <v>816.0537566647932</v>
+        <v>816.0537566647931</v>
       </c>
       <c r="N30" t="n">
         <v>1074.527417586113</v>
@@ -6606,10 +6606,10 @@
         <v>766.5181902743841</v>
       </c>
       <c r="E31" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251214</v>
       </c>
       <c r="F31" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G31" t="n">
         <v>255.311952099396</v>
@@ -6621,25 +6621,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J31" t="n">
-        <v>118.778268617143</v>
+        <v>139.4866804296565</v>
       </c>
       <c r="K31" t="n">
-        <v>219.7541432517701</v>
+        <v>511.0452355683503</v>
       </c>
       <c r="L31" t="n">
-        <v>761.834826638029</v>
+        <v>1053.125918954609</v>
       </c>
       <c r="M31" t="n">
-        <v>1351.923086157471</v>
+        <v>1183.730311293139</v>
       </c>
       <c r="N31" t="n">
-        <v>1921.680801119006</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O31" t="n">
-        <v>2459.115931692549</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P31" t="n">
-        <v>2907.391881840574</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q31" t="n">
         <v>2977.159153071229</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>887.2427258262751</v>
+        <v>1306.563404597934</v>
       </c>
       <c r="C32" t="n">
-        <v>887.2427258262751</v>
+        <v>1306.563404597934</v>
       </c>
       <c r="D32" t="n">
-        <v>887.2427258262751</v>
+        <v>1306.563404597934</v>
       </c>
       <c r="E32" t="n">
-        <v>887.2427258262751</v>
+        <v>872.7886597562288</v>
       </c>
       <c r="F32" t="n">
-        <v>459.3752962354828</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="G32" t="n">
-        <v>59.87260491495994</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="H32" t="n">
         <v>59.87260491495994</v>
@@ -6703,7 +6703,7 @@
         <v>723.9740178625037</v>
       </c>
       <c r="K32" t="n">
-        <v>960.2456682417246</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L32" t="n">
         <v>1253.361543105625</v>
@@ -6742,10 +6742,10 @@
         <v>1714.84952829828</v>
       </c>
       <c r="X32" t="n">
-        <v>1295.707064877591</v>
+        <v>1714.84952829828</v>
       </c>
       <c r="Y32" t="n">
-        <v>887.4209411772441</v>
+        <v>1306.563404597934</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1859.550434580796</v>
+        <v>555.2373584323959</v>
       </c>
       <c r="C33" t="n">
-        <v>1753.093973417439</v>
+        <v>448.7808972690382</v>
       </c>
       <c r="D33" t="n">
-        <v>1658.003684563992</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E33" t="n">
-        <v>1563.883269890945</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F33" t="n">
-        <v>1480.499431507107</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G33" t="n">
-        <v>1396.128331096764</v>
+        <v>91.81525494836369</v>
       </c>
       <c r="H33" t="n">
-        <v>1364.18568106336</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="I33" t="n">
-        <v>1398.402417234837</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J33" t="n">
-        <v>1492.295756581303</v>
+        <v>187.9826804329032</v>
       </c>
       <c r="K33" t="n">
-        <v>1652.774428635474</v>
+        <v>348.4613524870734</v>
       </c>
       <c r="L33" t="n">
-        <v>1868.557807510496</v>
+        <v>564.2447313620958</v>
       </c>
       <c r="M33" t="n">
-        <v>2120.366832813193</v>
+        <v>816.0537566647931</v>
       </c>
       <c r="N33" t="n">
-        <v>2378.840493734513</v>
+        <v>1074.527417586113</v>
       </c>
       <c r="O33" t="n">
-        <v>2615.293396549044</v>
+        <v>1310.980320400644</v>
       </c>
       <c r="P33" t="n">
-        <v>2805.06769711385</v>
+        <v>1500.75462096545</v>
       </c>
       <c r="Q33" t="n">
-        <v>2931.926791322084</v>
+        <v>1627.613715173684</v>
       </c>
       <c r="R33" t="n">
-        <v>2993.630245747997</v>
+        <v>1689.317169599597</v>
       </c>
       <c r="S33" t="n">
-        <v>2949.009215147731</v>
+        <v>1644.696138999331</v>
       </c>
       <c r="T33" t="n">
-        <v>2822.917660023384</v>
+        <v>1518.604583874984</v>
       </c>
       <c r="U33" t="n">
-        <v>2646.647822847265</v>
+        <v>1342.334746698865</v>
       </c>
       <c r="V33" t="n">
-        <v>2447.530304909264</v>
+        <v>1143.217228760864</v>
       </c>
       <c r="W33" t="n">
-        <v>2262.207550642459</v>
+        <v>957.8944744940584</v>
       </c>
       <c r="X33" t="n">
-        <v>2107.340114881339</v>
+        <v>803.0270387329383</v>
       </c>
       <c r="Y33" t="n">
-        <v>1980.854335660559</v>
+        <v>676.5412595121591</v>
       </c>
     </row>
     <row r="34">
@@ -6837,13 +6837,13 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C34" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D34" t="n">
         <v>766.5181902743841</v>
       </c>
       <c r="E34" t="n">
-        <v>596.7601865251214</v>
+        <v>596.7601865251213</v>
       </c>
       <c r="F34" t="n">
         <v>420.0531324868776</v>
@@ -6858,25 +6858,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J34" t="n">
-        <v>118.778268617143</v>
+        <v>118.7782686171431</v>
       </c>
       <c r="K34" t="n">
-        <v>219.75414325177</v>
+        <v>219.7541432517691</v>
       </c>
       <c r="L34" t="n">
-        <v>761.8348266380289</v>
+        <v>761.8348266380279</v>
       </c>
       <c r="M34" t="n">
-        <v>1351.923086157471</v>
+        <v>1351.92308615747</v>
       </c>
       <c r="N34" t="n">
-        <v>1921.680801119006</v>
+        <v>1921.680801119005</v>
       </c>
       <c r="O34" t="n">
-        <v>2459.115931692549</v>
+        <v>2459.115931692548</v>
       </c>
       <c r="P34" t="n">
-        <v>2907.391881840574</v>
+        <v>2907.391881840573</v>
       </c>
       <c r="Q34" t="n">
         <v>2977.159153071229</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1106.115155190274</v>
+        <v>2034.262063403863</v>
       </c>
       <c r="C35" t="n">
-        <v>667.9726823736969</v>
+        <v>1596.119590587286</v>
       </c>
       <c r="D35" t="n">
-        <v>667.9726823736969</v>
+        <v>1160.20980576173</v>
       </c>
       <c r="E35" t="n">
-        <v>667.9726823736969</v>
+        <v>726.4350609200255</v>
       </c>
       <c r="F35" t="n">
-        <v>240.1052527829046</v>
+        <v>447.4402715899236</v>
       </c>
       <c r="G35" t="n">
-        <v>240.1052527829046</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="H35" t="n">
-        <v>47.9375802694008</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="I35" t="n">
-        <v>119.1375305205814</v>
+        <v>119.1375305205813</v>
       </c>
       <c r="J35" t="n">
-        <v>312.6047130658845</v>
+        <v>276.7843057640266</v>
       </c>
       <c r="K35" t="n">
-        <v>548.8763634451053</v>
+        <v>513.0559561432475</v>
       </c>
       <c r="L35" t="n">
-        <v>841.9922383090059</v>
+        <v>806.1718310071482</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.140126477793</v>
+        <v>1132.319719175935</v>
       </c>
       <c r="N35" t="n">
-        <v>1499.56542845427</v>
+        <v>1463.745021152413</v>
       </c>
       <c r="O35" t="n">
-        <v>1812.520942995563</v>
+        <v>1776.700535693706</v>
       </c>
       <c r="P35" t="n">
-        <v>2079.621234174832</v>
+        <v>2043.800826872975</v>
       </c>
       <c r="Q35" t="n">
-        <v>2280.2024291859</v>
+        <v>2280.202429185896</v>
       </c>
       <c r="R35" t="n">
-        <v>2396.87901347004</v>
+        <v>2396.879013470036</v>
       </c>
       <c r="S35" t="n">
-        <v>2356.412643684837</v>
+        <v>2396.879013470036</v>
       </c>
       <c r="T35" t="n">
-        <v>2356.412643684837</v>
+        <v>2396.879013470036</v>
       </c>
       <c r="U35" t="n">
-        <v>2356.412643684837</v>
+        <v>2396.879013470036</v>
       </c>
       <c r="V35" t="n">
-        <v>2356.412643684837</v>
+        <v>2034.262063403863</v>
       </c>
       <c r="W35" t="n">
-        <v>1951.557189095871</v>
+        <v>2034.262063403863</v>
       </c>
       <c r="X35" t="n">
-        <v>1532.414725675181</v>
+        <v>2034.262063403863</v>
       </c>
       <c r="Y35" t="n">
-        <v>1532.414725675181</v>
+        <v>2034.262063403863</v>
       </c>
     </row>
     <row r="36">
@@ -6998,25 +6998,25 @@
         <v>436.8458726234791</v>
       </c>
       <c r="D36" t="n">
-        <v>341.7555837700324</v>
+        <v>341.7555837700323</v>
       </c>
       <c r="E36" t="n">
-        <v>247.6351690969861</v>
+        <v>247.635169096986</v>
       </c>
       <c r="F36" t="n">
-        <v>164.2513307131477</v>
+        <v>164.2513307131476</v>
       </c>
       <c r="G36" t="n">
-        <v>79.88023030280456</v>
+        <v>79.88023030280448</v>
       </c>
       <c r="H36" t="n">
-        <v>47.9375802694008</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="I36" t="n">
-        <v>82.1543164408769</v>
+        <v>82.15431644087676</v>
       </c>
       <c r="J36" t="n">
-        <v>176.047655787344</v>
+        <v>176.0476557873439</v>
       </c>
       <c r="K36" t="n">
         <v>336.5263278415142</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>732.8423423721597</v>
+        <v>652.6332008074412</v>
       </c>
       <c r="C37" t="n">
-        <v>560.2806308553846</v>
+        <v>480.0714892906661</v>
       </c>
       <c r="D37" t="n">
         <v>394.4026380569073</v>
       </c>
       <c r="E37" t="n">
-        <v>224.6446343076446</v>
+        <v>224.6446343076445</v>
       </c>
       <c r="F37" t="n">
-        <v>47.9375802694008</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="G37" t="n">
-        <v>47.9375802694008</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="H37" t="n">
-        <v>47.9375802694008</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="I37" t="n">
-        <v>47.9375802694008</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="J37" t="n">
-        <v>106.8432439715839</v>
+        <v>106.8432439715838</v>
       </c>
       <c r="K37" t="n">
-        <v>203.6433445391421</v>
+        <v>203.643344539142</v>
       </c>
       <c r="L37" t="n">
-        <v>624.5674615409853</v>
+        <v>512.5904883304096</v>
       </c>
       <c r="M37" t="n">
-        <v>755.1718538795146</v>
+        <v>1102.678747849852</v>
       </c>
       <c r="N37" t="n">
-        <v>1324.929568841049</v>
+        <v>1672.436462811386</v>
       </c>
       <c r="O37" t="n">
-        <v>1862.364699414592</v>
+        <v>2209.871593384929</v>
       </c>
       <c r="P37" t="n">
-        <v>2310.640649562617</v>
+        <v>2310.640649562613</v>
       </c>
       <c r="Q37" t="n">
-        <v>2380.407920793273</v>
+        <v>2380.407920793269</v>
       </c>
       <c r="R37" t="n">
-        <v>2396.87901347004</v>
+        <v>2396.879013470036</v>
       </c>
       <c r="S37" t="n">
-        <v>2252.452474974275</v>
+        <v>2396.879013470036</v>
       </c>
       <c r="T37" t="n">
-        <v>2010.205250877682</v>
+        <v>2154.631789373443</v>
       </c>
       <c r="U37" t="n">
-        <v>1956.454298986904</v>
+        <v>1876.245157422186</v>
       </c>
       <c r="V37" t="n">
-        <v>1669.498790857335</v>
+        <v>1589.289649292616</v>
       </c>
       <c r="W37" t="n">
-        <v>1397.472386443626</v>
+        <v>1317.263244878908</v>
       </c>
       <c r="X37" t="n">
-        <v>1152.080631777039</v>
+        <v>1071.87149021232</v>
       </c>
       <c r="Y37" t="n">
-        <v>924.6609610911469</v>
+        <v>844.4518195264284</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1783.63201234403</v>
+        <v>1349.857267502325</v>
       </c>
       <c r="C38" t="n">
-        <v>1345.489539527453</v>
+        <v>911.7147946857485</v>
       </c>
       <c r="D38" t="n">
-        <v>909.5797547018979</v>
+        <v>475.805009860193</v>
       </c>
       <c r="E38" t="n">
-        <v>475.8050098601931</v>
+        <v>475.805009860193</v>
       </c>
       <c r="F38" t="n">
-        <v>47.9375802694008</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="G38" t="n">
-        <v>47.9375802694008</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="H38" t="n">
-        <v>47.9375802694008</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="I38" t="n">
-        <v>119.1375305205814</v>
+        <v>119.1375305205813</v>
       </c>
       <c r="J38" t="n">
         <v>276.7843057640266</v>
       </c>
       <c r="K38" t="n">
-        <v>513.0559561432474</v>
+        <v>513.0559561432475</v>
       </c>
       <c r="L38" t="n">
-        <v>806.1718310071481</v>
+        <v>841.9922383090018</v>
       </c>
       <c r="M38" t="n">
-        <v>1132.319719175935</v>
+        <v>1168.140126477789</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.745021152413</v>
+        <v>1499.565428454266</v>
       </c>
       <c r="O38" t="n">
-        <v>1776.700535693705</v>
+        <v>1812.520942995559</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.800826872974</v>
+        <v>2079.621234174828</v>
       </c>
       <c r="Q38" t="n">
-        <v>2244.382021884042</v>
+        <v>2280.202429185896</v>
       </c>
       <c r="R38" t="n">
-        <v>2396.87901347004</v>
+        <v>2396.879013470036</v>
       </c>
       <c r="S38" t="n">
-        <v>2396.87901347004</v>
+        <v>2396.879013470036</v>
       </c>
       <c r="T38" t="n">
-        <v>2396.87901347004</v>
+        <v>2185.107761939149</v>
       </c>
       <c r="U38" t="n">
-        <v>2396.87901347004</v>
+        <v>2185.107761939149</v>
       </c>
       <c r="V38" t="n">
-        <v>2396.87901347004</v>
+        <v>2185.107761939149</v>
       </c>
       <c r="W38" t="n">
-        <v>2396.87901347004</v>
+        <v>2185.107761939149</v>
       </c>
       <c r="X38" t="n">
-        <v>2209.931582828938</v>
+        <v>1776.156837987233</v>
       </c>
       <c r="Y38" t="n">
-        <v>2209.931582828938</v>
+        <v>1776.156837987233</v>
       </c>
     </row>
     <row r="39">
@@ -7235,25 +7235,25 @@
         <v>436.8458726234791</v>
       </c>
       <c r="D39" t="n">
-        <v>341.7555837700324</v>
+        <v>341.7555837700323</v>
       </c>
       <c r="E39" t="n">
-        <v>247.6351690969861</v>
+        <v>247.635169096986</v>
       </c>
       <c r="F39" t="n">
-        <v>164.2513307131477</v>
+        <v>164.2513307131476</v>
       </c>
       <c r="G39" t="n">
-        <v>79.88023030280456</v>
+        <v>79.88023030280448</v>
       </c>
       <c r="H39" t="n">
-        <v>47.9375802694008</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="I39" t="n">
-        <v>82.15431644087693</v>
+        <v>82.15431644087676</v>
       </c>
       <c r="J39" t="n">
-        <v>176.047655787344</v>
+        <v>176.0476557873439</v>
       </c>
       <c r="K39" t="n">
         <v>336.5263278415142</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>795.1621704412498</v>
+        <v>960.6788093233931</v>
       </c>
       <c r="C40" t="n">
-        <v>622.6004589244748</v>
+        <v>788.1170978066181</v>
       </c>
       <c r="D40" t="n">
-        <v>456.7224661259975</v>
+        <v>622.2391050081408</v>
       </c>
       <c r="E40" t="n">
-        <v>452.4811012588782</v>
+        <v>452.4811012588781</v>
       </c>
       <c r="F40" t="n">
-        <v>275.7740472206344</v>
+        <v>275.7740472206343</v>
       </c>
       <c r="G40" t="n">
-        <v>111.0328668331528</v>
+        <v>111.0328668331527</v>
       </c>
       <c r="H40" t="n">
-        <v>111.0328668331528</v>
+        <v>111.0328668331527</v>
       </c>
       <c r="I40" t="n">
-        <v>47.9375802694008</v>
+        <v>47.93758026940073</v>
       </c>
       <c r="J40" t="n">
-        <v>106.8432439715839</v>
+        <v>106.8432439715838</v>
       </c>
       <c r="K40" t="n">
-        <v>203.6433445391421</v>
+        <v>203.643344539142</v>
       </c>
       <c r="L40" t="n">
-        <v>624.5674615409852</v>
+        <v>512.5904883304096</v>
       </c>
       <c r="M40" t="n">
-        <v>755.1718538795145</v>
+        <v>1102.678747849852</v>
       </c>
       <c r="N40" t="n">
-        <v>1324.929568841049</v>
+        <v>1672.436462811386</v>
       </c>
       <c r="O40" t="n">
-        <v>1862.364699414592</v>
+        <v>2209.871593384929</v>
       </c>
       <c r="P40" t="n">
-        <v>2310.640649562617</v>
+        <v>2310.640649562613</v>
       </c>
       <c r="Q40" t="n">
-        <v>2380.407920793273</v>
+        <v>2380.407920793269</v>
       </c>
       <c r="R40" t="n">
-        <v>2396.87901347004</v>
+        <v>2396.879013470036</v>
       </c>
       <c r="S40" t="n">
-        <v>2252.452474974275</v>
+        <v>2396.879013470036</v>
       </c>
       <c r="T40" t="n">
-        <v>2010.205250877682</v>
+        <v>2154.631789373443</v>
       </c>
       <c r="U40" t="n">
-        <v>1731.818618926425</v>
+        <v>1876.245157422186</v>
       </c>
       <c r="V40" t="n">
-        <v>1731.818618926425</v>
+        <v>1589.289649292616</v>
       </c>
       <c r="W40" t="n">
-        <v>1459.792214512716</v>
+        <v>1589.289649292616</v>
       </c>
       <c r="X40" t="n">
-        <v>1214.400459846129</v>
+        <v>1379.917098728272</v>
       </c>
       <c r="Y40" t="n">
-        <v>986.980789160237</v>
+        <v>1152.49742804238</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1934.028006962828</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C41" t="n">
-        <v>1495.885534146252</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D41" t="n">
-        <v>1059.975749320696</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E41" t="n">
-        <v>626.2010044789913</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F41" t="n">
-        <v>198.3335748881991</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J41" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L41" t="n">
         <v>805.4408022867025</v>
@@ -7423,40 +7423,40 @@
         <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V41" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W41" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X41" t="n">
-        <v>2360.327577447736</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y41" t="n">
-        <v>2360.327577447736</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="42">
@@ -7469,31 +7469,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
         <v>551.5786779960906</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>896.8524940391951</v>
+        <v>758.6107344189465</v>
       </c>
       <c r="C43" t="n">
-        <v>724.29078252242</v>
+        <v>586.0490229021715</v>
       </c>
       <c r="D43" t="n">
-        <v>558.4127897239428</v>
+        <v>420.1710301036942</v>
       </c>
       <c r="E43" t="n">
-        <v>388.6547859746801</v>
+        <v>250.4130263544315</v>
       </c>
       <c r="F43" t="n">
-        <v>211.9477319364363</v>
+        <v>73.70597231618765</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895472</v>
+        <v>73.70597231618765</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895472</v>
+        <v>73.70597231618765</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L43" t="n">
-        <v>1106.33113894078</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M43" t="n">
-        <v>1236.93553127931</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N43" t="n">
-        <v>1539.854607180194</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527956</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T43" t="n">
-        <v>2360.327577447736</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>2120.464450653939</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V43" t="n">
-        <v>1833.50894252437</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W43" t="n">
-        <v>1561.482538110662</v>
+        <v>1423.240778490413</v>
       </c>
       <c r="X43" t="n">
-        <v>1316.090783444074</v>
+        <v>1177.849023823826</v>
       </c>
       <c r="Y43" t="n">
-        <v>1088.671112758182</v>
+        <v>950.4293531379337</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1128.043535737733</v>
+        <v>1571.411056896656</v>
       </c>
       <c r="C44" t="n">
-        <v>1128.043535737733</v>
+        <v>1133.268584080079</v>
       </c>
       <c r="D44" t="n">
-        <v>1128.043535737733</v>
+        <v>697.3587992545235</v>
       </c>
       <c r="E44" t="n">
-        <v>1128.043535737733</v>
+        <v>263.5840544128187</v>
       </c>
       <c r="F44" t="n">
-        <v>700.176106146941</v>
+        <v>263.5840544128187</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
         <v>512.3249274228019</v>
@@ -7657,43 +7657,43 @@
         <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V44" t="n">
-        <v>2360.327577447736</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="W44" t="n">
-        <v>1955.472122858769</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="X44" t="n">
-        <v>1536.32965943808</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="Y44" t="n">
-        <v>1128.043535737733</v>
+        <v>1997.710627381563</v>
       </c>
     </row>
     <row r="45">
@@ -7706,31 +7706,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
         <v>551.5786779960906</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>555.4042596134699</v>
+        <v>698.5773814739204</v>
       </c>
       <c r="C46" t="n">
-        <v>382.8425480966948</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="D46" t="n">
-        <v>216.9645552982175</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E46" t="n">
-        <v>47.20655154895472</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895472</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895472</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9462364092376</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827552</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789086</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.320157362629</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2299.650072276065</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>2057.402848179471</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>1779.016216228214</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1492.060708098645</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W46" t="n">
-        <v>1220.034303684936</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X46" t="n">
-        <v>974.6425490183487</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>747.222878332457</v>
+        <v>890.3960001929074</v>
       </c>
     </row>
   </sheetData>
@@ -7987,22 +7987,22 @@
         <v>41.31500304752735</v>
       </c>
       <c r="M2" t="n">
-        <v>41.31500304752736</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R2" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13.31876740878122</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K3" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>41.31500304752734</v>
@@ -8136,25 +8136,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>41.31500304752734</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P5" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="Q5" t="n">
         <v>41.31500304752734</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>13.31876740878122</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>41.31500304752735</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="Q6" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,25 +8373,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>41.31500304752734</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39.64570999510198</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R8" t="n">
         <v>41.31500304752734</v>
@@ -8531,31 +8531,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>13.31876740878121</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q9" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L10" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8856,16 +8856,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>70.05088382580942</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9084,13 +9084,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>458.1582657371571</v>
@@ -9099,13 +9099,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.27619576520601</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9172,13 +9172,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>36.18222959783702</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>36.18222959783179</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9324,10 +9324,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>259.8370681095093</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>186.9458001747167</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645587</v>
@@ -9336,10 +9336,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>36.18222959783708</v>
+        <v>36.18222959783191</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>188.419908717975</v>
+        <v>300.8285419833726</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>4.217953603099716</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
@@ -9810,13 +9810,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>315.6807984451041</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>16.3917805336169</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -10041,13 +10041,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>20.91758768940753</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>339.9726382326635</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10129,10 +10129,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="Q29" t="n">
-        <v>456.0429799810087</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>20.91758768940753</v>
       </c>
       <c r="K31" t="n">
-        <v>4.217953603099829</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>4.217953603099716</v>
+        <v>4.217953603098778</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>36.18222959783623</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>36.18222959783179</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10749,10 +10749,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>300.053853922773</v>
+        <v>186.9458001747167</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -10761,7 +10761,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>36.18222959783191</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>36.1822295978364</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10986,10 +10986,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>300.0538539227729</v>
+        <v>186.9458001747167</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -10998,7 +10998,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11229,16 +11229,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>177.1920849464593</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>156.7304232042866</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>182.846117086918</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
@@ -23317,7 +23317,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>221.3556426594433</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.8593420240462</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2.360256329767784</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>294.6492154448413</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>102.9226242288704</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
@@ -23560,10 +23560,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>109.9025982497426</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23743,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>143.0425995197586</v>
+        <v>108.0024104154585</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -23791,7 +23791,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>79.40705014907127</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>79.40705014906644</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>241.4512369700203</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>229.873082451795</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>101.397138795212</v>
       </c>
       <c r="T22" t="n">
-        <v>79.40705014906644</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>139.563527052609</v>
       </c>
       <c r="U23" t="n">
-        <v>109.0267948329725</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>296.1279464059647</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>225.702752908784</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>267.9806994858762</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,16 +24736,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>330.4203152731309</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>421.8601415825993</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -24925,16 +24925,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>281.3338613508744</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>147.3839138580834</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>76.77834015315986</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
@@ -25213,13 +25213,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>79.40705014907127</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>222.3893232598747</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
@@ -25456,7 +25456,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>229.8730824517909</v>
+        <v>10.08962407408592</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>163.861472493322</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>35.65901206122109</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>245.8919113014657</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
@@ -25693,7 +25693,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>305.3969917679806</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811444</v>
+        <v>36.22990713855385</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>38.13827010588569</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>16.09214129683983</v>
+        <v>181.2939365720923</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
@@ -25924,16 +25924,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>82.91154299085321</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>81.6706605218904</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>346987.8139347575</v>
+        <v>346987.8139347569</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>346987.8139347577</v>
+        <v>346987.813934757</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>429857.6162242693</v>
+        <v>429857.6162242692</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>346987.8139347575</v>
+        <v>346987.8139347569</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>346987.8139347575</v>
+        <v>346987.813934757</v>
       </c>
     </row>
     <row r="15">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375303.1239232861</v>
+        <v>375303.1239232862</v>
       </c>
       <c r="C2" t="n">
-        <v>375303.1239232862</v>
+        <v>375303.123923286</v>
       </c>
       <c r="D2" t="n">
         <v>375303.1239232862</v>
@@ -26328,13 +26328,13 @@
         <v>220216.5998211444</v>
       </c>
       <c r="G2" t="n">
-        <v>222788.3187992997</v>
+        <v>222788.3187992994</v>
       </c>
       <c r="H2" t="n">
-        <v>222788.3187992998</v>
+        <v>222788.3187992994</v>
       </c>
       <c r="I2" t="n">
-        <v>264775.0814630262</v>
+        <v>264775.0814630261</v>
       </c>
       <c r="J2" t="n">
         <v>264775.0814630262</v>
@@ -26346,16 +26346,16 @@
         <v>264775.0814630262</v>
       </c>
       <c r="M2" t="n">
-        <v>222788.3187992997</v>
+        <v>222788.3187992994</v>
       </c>
       <c r="N2" t="n">
-        <v>222788.3187992998</v>
+        <v>222788.3187992995</v>
       </c>
       <c r="O2" t="n">
+        <v>220216.5998211444</v>
+      </c>
+      <c r="P2" t="n">
         <v>220216.5998211443</v>
-      </c>
-      <c r="P2" t="n">
-        <v>220216.5998211442</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2504.550085543296</v>
+        <v>2504.550085542962</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39672.17110964658</v>
+        <v>39672.17110964691</v>
       </c>
       <c r="J3" t="n">
         <v>10809.82265736726</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99576.70586096645</v>
+        <v>99576.70586096622</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,10 +26432,10 @@
         <v>12054.84944074259</v>
       </c>
       <c r="G4" t="n">
-        <v>13278.72782978126</v>
+        <v>13278.72782978109</v>
       </c>
       <c r="H4" t="n">
-        <v>13278.72782978127</v>
+        <v>13278.7278297811</v>
       </c>
       <c r="I4" t="n">
         <v>33260.18454659831</v>
@@ -26450,10 +26450,10 @@
         <v>33260.18454659831</v>
       </c>
       <c r="M4" t="n">
-        <v>13278.72782978124</v>
+        <v>13278.72782978109</v>
       </c>
       <c r="N4" t="n">
-        <v>13278.72782978124</v>
+        <v>13278.72782978109</v>
       </c>
       <c r="O4" t="n">
         <v>12054.84944074259</v>
@@ -26484,10 +26484,10 @@
         <v>46051.08120963782</v>
       </c>
       <c r="G5" t="n">
-        <v>46606.66303717684</v>
+        <v>46606.66303717678</v>
       </c>
       <c r="H5" t="n">
-        <v>46606.66303717684</v>
+        <v>46606.66303717678</v>
       </c>
       <c r="I5" t="n">
         <v>55677.28176780177</v>
@@ -26502,16 +26502,16 @@
         <v>55677.28176780177</v>
       </c>
       <c r="M5" t="n">
-        <v>46606.66303717683</v>
+        <v>46606.66303717678</v>
       </c>
       <c r="N5" t="n">
-        <v>46606.66303717683</v>
+        <v>46606.66303717678</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24865.57722171421</v>
+        <v>24865.57722171432</v>
       </c>
       <c r="C6" t="n">
-        <v>38711.18498801081</v>
+        <v>38711.18498801063</v>
       </c>
       <c r="D6" t="n">
-        <v>38711.18498801081</v>
+        <v>38711.18498801075</v>
       </c>
       <c r="E6" t="n">
-        <v>-376688.7808399872</v>
+        <v>-377242.6612832091</v>
       </c>
       <c r="F6" t="n">
-        <v>162110.669170764</v>
+        <v>161556.788727542</v>
       </c>
       <c r="G6" t="n">
-        <v>160398.3778467983</v>
+        <v>159853.6821142129</v>
       </c>
       <c r="H6" t="n">
-        <v>162902.9279323416</v>
+        <v>162358.2321997559</v>
       </c>
       <c r="I6" t="n">
-        <v>136165.4440389795</v>
+        <v>135770.7010301925</v>
       </c>
       <c r="J6" t="n">
-        <v>165027.7924912589</v>
+        <v>164633.0494824722</v>
       </c>
       <c r="K6" t="n">
-        <v>175837.6151486262</v>
+        <v>175442.8721398395</v>
       </c>
       <c r="L6" t="n">
-        <v>175837.6151486262</v>
+        <v>175442.8721398395</v>
       </c>
       <c r="M6" t="n">
-        <v>63326.22207137522</v>
+        <v>62781.52633878971</v>
       </c>
       <c r="N6" t="n">
-        <v>162902.9279323417</v>
+        <v>162358.2321997559</v>
       </c>
       <c r="O6" t="n">
-        <v>162110.6691707639</v>
+        <v>161556.788727542</v>
       </c>
       <c r="P6" t="n">
-        <v>162110.6691707639</v>
+        <v>161556.7887275419</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26804,10 +26804,10 @@
         <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
-        <v>599.2197533675103</v>
+        <v>599.219753367509</v>
       </c>
       <c r="H4" t="n">
-        <v>599.2197533675103</v>
+        <v>599.219753367509</v>
       </c>
       <c r="I4" t="n">
         <v>748.4075614369992</v>
@@ -26822,16 +26822,16 @@
         <v>748.4075614369992</v>
       </c>
       <c r="M4" t="n">
-        <v>599.2197533675101</v>
+        <v>599.219753367509</v>
       </c>
       <c r="N4" t="n">
-        <v>599.2197533675101</v>
+        <v>599.219753367509</v>
       </c>
       <c r="O4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.13785900557599</v>
+        <v>9.137859005574773</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>149.187808069489</v>
+        <v>149.1878080694902</v>
       </c>
       <c r="J4" t="n">
         <v>41.3150030475274</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.5790832449176</v>
+        <v>399.5790832449167</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>9.13785900557599</v>
+        <v>9.137859005574773</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27460,7 +27460,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C3" t="n">
-        <v>69.00164186746204</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
         <v>94.13938596491228</v>
@@ -27508,22 +27508,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.82088317610075</v>
+        <v>21.5058801285734</v>
       </c>
       <c r="T3" t="n">
-        <v>128.8768572327044</v>
+        <v>87.56185418517705</v>
       </c>
       <c r="U3" t="n">
-        <v>174.5731815300314</v>
+        <v>133.258178482504</v>
       </c>
       <c r="V3" t="n">
-        <v>155.8113397110933</v>
+        <v>160.7360880743585</v>
       </c>
       <c r="W3" t="n">
-        <v>142.1545236766106</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X3" t="n">
-        <v>112.0037583559815</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
         <v>125.2209214285714</v>
@@ -27542,10 +27542,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>127.8289581862304</v>
+        <v>149.0326012679123</v>
       </c>
       <c r="E4" t="n">
-        <v>126.7454206642428</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>133.624980450334</v>
@@ -27557,7 +27557,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>46.45834668554406</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -27697,16 +27697,16 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
-        <v>105.3918965517241</v>
+        <v>69.00164186746204</v>
       </c>
       <c r="D6" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E6" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F6" t="n">
-        <v>82.55</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G6" t="n">
         <v>84.53123883647795</v>
@@ -27751,16 +27751,16 @@
         <v>128.8768572327044</v>
       </c>
       <c r="U6" t="n">
-        <v>138.1829268457693</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V6" t="n">
-        <v>155.8113397110933</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W6" t="n">
-        <v>142.1545236766106</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X6" t="n">
-        <v>112.0037583559815</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
         <v>125.2209214285714</v>
@@ -27776,7 +27776,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>155.6494827990271</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -27788,13 +27788,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>122.6203591769033</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>97.18814951900188</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>46.45834668554406</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -27842,7 +27842,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>188.7552192947707</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -28016,7 +28016,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>149.0326012679123</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -28028,10 +28028,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>97.18814951900188</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>46.45834668554406</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>207.0303972730672</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>234.3336676918984</v>
       </c>
       <c r="V10" t="n">
-        <v>242.7709500007465</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32168,28 +32168,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.691212691723</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32405,28 +32405,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32642,28 +32642,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32879,28 +32879,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U29" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33353,28 +33353,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562314</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33590,28 +33590,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33827,28 +33827,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34064,28 +34064,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34301,28 +34301,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916797</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34538,28 +34538,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34707,22 +34707,22 @@
         <v>41.31500304752735</v>
       </c>
       <c r="M2" t="n">
-        <v>41.31500304752736</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R2" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13.31876740878122</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K3" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>41.31500304752734</v>
@@ -34856,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="M4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>41.31500304752734</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P5" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="Q5" t="n">
         <v>41.31500304752734</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>13.31876740878122</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>41.31500304752735</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="Q6" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,25 +35093,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>41.31500304752734</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39.64570999510198</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R8" t="n">
         <v>41.31500304752734</v>
@@ -35251,31 +35251,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>13.31876740878121</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q9" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L10" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35430,7 +35430,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
         <v>117.855135640546</v>
@@ -35506,7 +35506,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35576,19 +35576,19 @@
         <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>198.8376634256979</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35664,7 +35664,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916795</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M16" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561045</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P16" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>139.7481869072826</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,25 +35880,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>365.6245408794402</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>352.2989109526729</v>
       </c>
       <c r="P17" t="n">
         <v>269.7982739184536</v>
@@ -35962,10 +35962,10 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
@@ -35974,13 +35974,13 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.691212691723</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>357.6149474706792</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>312.0678220113813</v>
       </c>
       <c r="M19" t="n">
-        <v>596.048746989336</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N19" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,16 +36117,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>195.421396510408</v>
+        <v>195.4213965104029</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.099668741586</v>
@@ -36208,10 +36208,10 @@
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>596.0487469893359</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>307.3753444227848</v>
+        <v>419.7839776881824</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,16 +36354,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>598.8903663599626</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36372,7 +36372,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
         <v>269.7982739184536</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916768</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624557</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>101.9958329642696</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M25" t="n">
-        <v>596.0487469893359</v>
+        <v>596.048746989336</v>
       </c>
       <c r="N25" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561043</v>
+        <v>434.6362341499139</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485101</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207615</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
         <v>598.8903663599629</v>
@@ -36612,10 +36612,10 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>286.1900544520704</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R26" t="n">
         <v>288.7178273103004</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916787</v>
+        <v>34.56235976916768</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36688,16 +36688,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K28" t="n">
         <v>375.3116718572664</v>
@@ -36761,19 +36761,19 @@
         <v>547.5562458447059</v>
       </c>
       <c r="M28" t="n">
-        <v>152.8412163141847</v>
+        <v>596.048746989336</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561041</v>
+        <v>458.9280739374733</v>
       </c>
       <c r="P28" t="n">
         <v>452.8039900485105</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36846,13 +36846,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>286.1900544520704</v>
       </c>
       <c r="Q29" t="n">
-        <v>658.6502476689557</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
         <v>288.7178273103004</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916805</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
@@ -36922,16 +36922,16 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R30" t="n">
         <v>62.32672164233622</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624557</v>
+        <v>80.4182580956531</v>
       </c>
       <c r="K31" t="n">
-        <v>101.9958329642697</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>596.0487469893358</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
         <v>452.8039900485105</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207615</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,16 +37065,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
         <v>598.8903663599629</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916787</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562314</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
@@ -37171,7 +37171,7 @@
         <v>128.1404992002367</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>101.9958329642696</v>
+        <v>101.9958329642687</v>
       </c>
       <c r="L34" t="n">
         <v>547.556245844706</v>
@@ -37244,13 +37244,13 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485101</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207615</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>195.4213965104072</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37326,7 +37326,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879471</v>
+        <v>238.7894972857789</v>
       </c>
       <c r="R35" t="n">
         <v>117.855135640546</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916777</v>
+        <v>34.56235976916771</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
         <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>425.1758757594375</v>
+        <v>312.0678220113813</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>332.2588708744993</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37557,7 +37557,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
         <v>269.7982739184536</v>
@@ -37566,7 +37566,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>154.0373652383823</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916771</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
         <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
-        <v>425.1758757594374</v>
+        <v>312.0678220113813</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,25 +37776,25 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994717</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184536</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>305.9788645463477</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
         <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816028</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
         <v>117.855135640546</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916797</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
-        <v>281.8524450409511</v>
+        <v>194.3982176018706</v>
       </c>
       <c r="M46" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N46" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
         <v>101.7869254320035</v>
@@ -38198,7 +38198,7 @@
         <v>70.4719911420766</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
